--- a/notebook/nd52_PA.xlsx
+++ b/notebook/nd52_PA.xlsx
@@ -1060,7 +1060,7 @@
         <v>45034</v>
       </c>
       <c r="J2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K2" t="s">
         <v>75</v>
@@ -1167,7 +1167,7 @@
         <v>45075</v>
       </c>
       <c r="J3">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K3" t="s">
         <v>75</v>
@@ -1274,7 +1274,7 @@
         <v>45084</v>
       </c>
       <c r="J4">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K4" t="s">
         <v>75</v>
@@ -1381,7 +1381,7 @@
         <v>45093</v>
       </c>
       <c r="J5">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
         <v>75</v>
@@ -1488,7 +1488,7 @@
         <v>45096</v>
       </c>
       <c r="J6">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K6" t="s">
         <v>75</v>
@@ -1595,7 +1595,7 @@
         <v>45096</v>
       </c>
       <c r="J7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K7" t="s">
         <v>75</v>
@@ -1702,7 +1702,7 @@
         <v>45103</v>
       </c>
       <c r="J8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K8" t="s">
         <v>75</v>
@@ -1809,7 +1809,7 @@
         <v>45105</v>
       </c>
       <c r="J9">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
         <v>75</v>
@@ -1916,7 +1916,7 @@
         <v>45119</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
         <v>75</v>
@@ -2023,7 +2023,7 @@
         <v>45131</v>
       </c>
       <c r="J11">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s">
         <v>75</v>
@@ -2130,7 +2130,7 @@
         <v>45134</v>
       </c>
       <c r="J12">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s">
         <v>75</v>
@@ -2237,7 +2237,7 @@
         <v>45134</v>
       </c>
       <c r="J13">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s">
         <v>75</v>
@@ -2344,7 +2344,7 @@
         <v>45138</v>
       </c>
       <c r="J14">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s">
         <v>75</v>
@@ -2451,7 +2451,7 @@
         <v>45139</v>
       </c>
       <c r="J15">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
         <v>75</v>
@@ -2558,7 +2558,7 @@
         <v>45140</v>
       </c>
       <c r="J16">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s">
         <v>75</v>
@@ -2665,7 +2665,7 @@
         <v>45140</v>
       </c>
       <c r="J17">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s">
         <v>75</v>
@@ -2772,7 +2772,7 @@
         <v>45140</v>
       </c>
       <c r="J18">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s">
         <v>75</v>
@@ -2879,7 +2879,7 @@
         <v>45140</v>
       </c>
       <c r="J19">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s">
         <v>75</v>
@@ -2986,7 +2986,7 @@
         <v>45146</v>
       </c>
       <c r="J20">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s">
         <v>75</v>
@@ -3093,7 +3093,7 @@
         <v>45148</v>
       </c>
       <c r="J21">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s">
         <v>75</v>
@@ -3200,7 +3200,7 @@
         <v>45148</v>
       </c>
       <c r="J22">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s">
         <v>75</v>
@@ -3307,7 +3307,7 @@
         <v>45148</v>
       </c>
       <c r="J23">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s">
         <v>75</v>
@@ -3414,7 +3414,7 @@
         <v>45148</v>
       </c>
       <c r="J24">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s">
         <v>75</v>
@@ -3521,7 +3521,7 @@
         <v>45148</v>
       </c>
       <c r="J25">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s">
         <v>75</v>
@@ -3628,7 +3628,7 @@
         <v>45148</v>
       </c>
       <c r="J26">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s">
         <v>75</v>
@@ -3735,7 +3735,7 @@
         <v>45148</v>
       </c>
       <c r="J27">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s">
         <v>75</v>
@@ -3842,7 +3842,7 @@
         <v>45156</v>
       </c>
       <c r="J28">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K28" t="s">
         <v>75</v>
@@ -3949,7 +3949,7 @@
         <v>45166</v>
       </c>
       <c r="J29">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s">
         <v>75</v>
